--- a/biology/Médecine/Syndrome_de_Jaeken/Syndrome_de_Jaeken.xlsx
+++ b/biology/Médecine/Syndrome_de_Jaeken/Syndrome_de_Jaeken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Jaeken  est le plus fréquent des déficits enzymatiques congénitaux de la glycosylation par déficit en phosphomannomutase. Il représente 70 % des anomalies congénitales de la glycosylation. 
 Les principales caractéristiques cliniques de cette anomalie sont une hypoplasie cérébelleuse, une dysmorphie faciale, un retard mental et une distribution anormale de la graisse.
@@ -516,7 +528,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>CDG Syndrome type Ia
 Syndrome des glycoprotéines déficientes en hydrates de carbone type Ia</t>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,16 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Début précoce impliquant plusieurs organes
-Début tardif se manifestant essentiellement par des troubles ataxiques et un retard mental
-Début à l'âge adulte</t>
-        </is>
-      </c>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -628,10 +642,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Prise en charge &amp; Traitement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,10 +670,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Prise en charge &amp; Traitement</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive 
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -680,45 +707,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Jaeken</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Jaeken</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(fr) Seta, N. Encyclopédie Orphanet [1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Seta, N. Encyclopédie Orphanet 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
